--- a/config_Release/signIn_cfg.xlsx
+++ b/config_Release/signIn_cfg.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JYHD\JyQipai_doc\config_3D\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_cjj\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
   <si>
     <t>id|</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -113,43 +113,67 @@
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>金币x50000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_198y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_198y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_50y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_jb_50y</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq2</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>30福利券</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
+    <t>100福利券</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>ty_icon_flq3</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>line</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_icon_p1</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
     <t>七日雷霆幻影</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
   <si>
-    <t>金币x50000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>3dby_icon_p1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_198y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_198y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_50y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_jb_50y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
-  </si>
-  <si>
-    <t>ty_icon_flq3</t>
+    <t>key</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_cjj</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>cpl_notcjj</t>
     <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
@@ -221,7 +245,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -255,13 +279,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -287,6 +320,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -682,7 +718,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>11</v>
@@ -712,7 +748,7 @@
         <v>7</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>13</v>
@@ -735,140 +771,179 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D16"/>
+  <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="36.875" customWidth="1"/>
-    <col min="3" max="3" width="106.625" customWidth="1"/>
+    <col min="3" max="3" width="36.875" customWidth="1"/>
+    <col min="4" max="4" width="106.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="E1" s="8" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="F1" s="10" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="1">
+        <v>1</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1">
+        <v>2</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="1">
+        <v>3</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
-        <v>3</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4">
+      <c r="D4" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E4">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="1">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>28</v>
+      <c r="B5" s="1">
+        <v>4</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="E5">
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="1">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>26</v>
+      <c r="B6" s="1">
+        <v>5</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D6" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E6" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="1"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="1"/>
-      <c r="B8" s="5"/>
+      <c r="F6" s="5" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" s="1">
+        <v>5</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B8" s="1"/>
       <c r="C8" s="5"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="1"/>
-      <c r="B9" s="5"/>
+      <c r="D8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B9" s="1"/>
       <c r="C9" s="5"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B11" s="9"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C11" s="9"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B12" s="9"/>
+      <c r="D11" s="9"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C12" s="9"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B13" s="9"/>
+      <c r="D12" s="9"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C13" s="9"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B14" s="9"/>
+      <c r="D13" s="9"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C14" s="9"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B15" s="9"/>
+      <c r="D14" s="9"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C15" s="9"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="B16" s="9"/>
+      <c r="D15" s="9"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>

--- a/config_Release/signIn_cfg.xlsx
+++ b/config_Release/signIn_cfg.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_cjj\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
   </bookViews>
   <sheets>
     <sheet name="week" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
   <si>
     <t>id|</t>
     <phoneticPr fontId="5" type="noConversion"/>
@@ -175,6 +175,84 @@
   <si>
     <t>cpl_notcjj</t>
     <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_desc</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>key</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>signin_cpl</t>
+  </si>
+  <si>
+    <t>signin_notcpl</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币x15000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3000金币</t>
+  </si>
+  <si>
+    <t>锁定*3</t>
+  </si>
+  <si>
+    <t>5000金币</t>
+  </si>
+  <si>
+    <t>8000金币</t>
+  </si>
+  <si>
+    <t>召唤*3</t>
+  </si>
+  <si>
+    <t>10000金币</t>
+  </si>
+  <si>
+    <t>20000金币</t>
+  </si>
+  <si>
+    <t>金币x6000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币x30000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>金币x60000</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_sd</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>3dby_btn_zh</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>V1双倍</t>
+  </si>
+  <si>
+    <t>V2三倍</t>
+  </si>
+  <si>
+    <t>V3三倍</t>
+  </si>
+  <si>
+    <t>V5三倍</t>
+  </si>
+  <si>
+    <t>V2双倍</t>
+  </si>
+  <si>
+    <t>V3双倍</t>
   </si>
 </sst>
 </file>
@@ -601,17 +679,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N9"/>
+  <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="13.125" style="1" customWidth="1"/>
-    <col min="2" max="4" width="35.875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="31.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="14.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="11.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="27.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="28" style="1" customWidth="1"/>
     <col min="8" max="8" width="54.375" style="1" customWidth="1"/>
@@ -638,8 +718,12 @@
       <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
+      <c r="F1" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>40</v>
+      </c>
       <c r="H1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -655,13 +739,19 @@
         <v>17</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>44</v>
       </c>
       <c r="D2" s="5">
         <v>1</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>14</v>
+        <v>51</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J2" s="3"/>
       <c r="K2" s="4"/>
@@ -671,13 +761,16 @@
         <v>2</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>18</v>
+        <v>54</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>7</v>
+        <v>45</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
+      <c r="G3" s="1" t="s">
+        <v>41</v>
+      </c>
       <c r="J3" s="3"/>
       <c r="K3" s="4"/>
     </row>
@@ -689,13 +782,19 @@
         <v>19</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>9</v>
+        <v>46</v>
       </c>
       <c r="D4" s="5">
         <v>2</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>15</v>
+        <v>43</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>41</v>
       </c>
       <c r="J4" s="3"/>
       <c r="K4" s="4"/>
@@ -705,29 +804,31 @@
         <v>4</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="6"/>
+      <c r="G5" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>5</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>55</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="5">
-        <v>3</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>16</v>
+        <v>48</v>
+      </c>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="G6" s="1" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -738,10 +839,20 @@
         <v>21</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
+        <v>49</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
@@ -751,16 +862,159 @@
         <v>24</v>
       </c>
       <c r="C8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="5">
+        <v>5</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="5">
+        <v>1</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+      <c r="G10" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" ht="16.5" x14ac:dyDescent="0.2">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="5">
+        <v>2</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="6"/>
+      <c r="G12" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="5">
+        <v>3</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A14" s="1">
         <v>13</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
+      <c r="B14" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="G14" s="5" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+      <c r="G15" s="5" t="s">
+        <v>42</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="5" type="noConversion"/>
@@ -773,14 +1027,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="3" max="3" width="36.875" customWidth="1"/>
     <col min="4" max="4" width="106.625" customWidth="1"/>
+    <col min="5" max="5" width="4.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">

--- a/config_Release/signIn_cfg.xlsx
+++ b/config_Release/signIn_cfg.xlsx
@@ -5,195 +5,196 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HLBY\HuanLe_doc\config_debug\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\JYHD\HuanLe_doc\config_8.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12465" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="week" sheetId="2" r:id="rId1"/>
     <sheet name="month" sheetId="7" r:id="rId2"/>
+    <sheet name="vip|签到界面vip提示" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="77">
   <si>
     <t>id|</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>img</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>info</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>day</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>M</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>vip</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>vipinfo</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金币x15000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金币x10000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金币x20000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金币x25000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金币x30000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金币x35000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金币x50000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金币x20000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金币x40000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金币x60000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_jb_18y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_jb_18y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_jb_30y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_jb_30y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_jb_50y</t>
   </si>
   <si>
     <t>10福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金币x50000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_jb_198y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_jb_198y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_jb_50y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_jb_50y</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_flq2</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>30福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>100福利券</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_flq3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>ty_icon_flq3</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>line</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3dby_icon_p1</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>七日雷霆幻影</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cpl_cjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>cpl_notcjj</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>vip_desc</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>key</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>signin_cpl</t>
   </si>
   <si>
     <t>signin_notcpl</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金币x15000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3000金币</t>
@@ -218,23 +219,23 @@
   </si>
   <si>
     <t>金币x6000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金币x30000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>金币x60000</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3dby_btn_sd</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>3dby_btn_zh</t>
-    <phoneticPr fontId="5" type="noConversion"/>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
     <t>V1双倍</t>
@@ -253,17 +254,150 @@
   </si>
   <si>
     <t>V3双倍</t>
+  </si>
+  <si>
+    <t>"*每日免费领取至尊礼包","*领30次礼包额外奖励200元话费","*福利券容量提升到1200万"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"*每日免费领取至尊礼包","*领30次礼包额外奖励1000万鱼币","*福利券容量提升到800万"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"*福利券容量提升到500万"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"*福利券容量提升到300万"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"*福利券容量提升到200万"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"*福利券容量提升到100万"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>"*福利券容量提升到50万"</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="等线"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"*解锁金币使者炮台","*解锁200元、300元京东卡","*福利券容量提升到30万"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"*解锁10元支付宝奖励金","*解锁100元京东卡，100元话费","*福利券容量提升到15万"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"*解锁闪耀风暴炮台","*解锁5元支付宝奖励金","*解锁20元京东卡，50元话费"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"*解锁VIP超级转盘","*解锁3元支付宝奖励金","*解锁10元京东卡"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>"*解锁自动开炮特权","*解锁1元支付宝奖励金","*解锁兑换商城实物商品"</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>dec_txt|描述</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>vip_level|VIP等级</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>index|序号</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -308,8 +442,21 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,6 +467,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF8DB4E2"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
       </patternFill>
     </fill>
   </fills>
@@ -367,45 +520,62 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="3" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="2" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="2" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="4">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="4" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="3" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="5">
+    <cellStyle name="40% - 着色 1" xfId="3" builtinId="31"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
     <cellStyle name="常规 2" xfId="2"/>
+    <cellStyle name="常规 3" xfId="4"/>
     <cellStyle name="常规 4" xfId="1"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -681,7 +851,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
@@ -1017,7 +1187,7 @@
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -1201,8 +1371,173 @@
       <c r="D16" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="5" type="noConversion"/>
+  <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="9" style="11"/>
+    <col min="2" max="2" width="22.875" style="11" customWidth="1"/>
+    <col min="3" max="3" width="111" style="11" customWidth="1"/>
+    <col min="4" max="16384" width="9" style="11"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" s="11">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11">
+        <v>0</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" s="11">
+        <v>2</v>
+      </c>
+      <c r="B3" s="11">
+        <v>1</v>
+      </c>
+      <c r="C3" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" s="11">
+        <v>3</v>
+      </c>
+      <c r="B4" s="11">
+        <v>2</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A5" s="11">
+        <v>4</v>
+      </c>
+      <c r="B5" s="11">
+        <v>3</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
+        <v>5</v>
+      </c>
+      <c r="B6" s="11">
+        <v>4</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A7" s="11">
+        <v>6</v>
+      </c>
+      <c r="B7" s="11">
+        <v>5</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A8" s="11">
+        <v>7</v>
+      </c>
+      <c r="B8" s="11">
+        <v>6</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A9" s="11">
+        <v>8</v>
+      </c>
+      <c r="B9" s="11">
+        <v>7</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A10" s="11">
+        <v>9</v>
+      </c>
+      <c r="B10" s="11">
+        <v>8</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A11" s="11">
+        <v>10</v>
+      </c>
+      <c r="B11" s="11">
+        <v>9</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A12" s="11">
+        <v>11</v>
+      </c>
+      <c r="B12" s="11">
+        <v>10</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A13" s="11">
+        <v>12</v>
+      </c>
+      <c r="B13" s="11">
+        <v>11</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="9" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>